--- a/biology/Zoologie/Jean-Baptiste_Bailly/Jean-Baptiste_Bailly.xlsx
+++ b/biology/Zoologie/Jean-Baptiste_Bailly/Jean-Baptiste_Bailly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Bailly, né le 23 août 1822 à Chambéry et mort le 20 décembre 1880 dans cette même ville, est un ornithologue savoyard, puis français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Bailly participe à la fondation de la Société d'histoire naturelle de la Savoie en 1844. Celle-ci est à l’origine de la création d’un Muséum à Chambéry ; dont elle a toujours la responsabilité en 2020. Dès 1844, Bailly en est le conservateur. Il obtient en 1848, le droit de chasser en toutes saisons du roi Charles-Albert de Sardaigne (1798-1849), autorisation renouvelée par Victor-Emmanuel II d'Italie (1820-1878).
 Il fait paraître en 1853-1854 son Ornithologie de la Savoie (quatre volumes édités à Paris) complétée en 1855-1856 par un atlas de 110 planches (édité à Chambéry).
-Il devient membre effectif (titulaire) de l'Académie de Savoie en 1856[1].
+Il devient membre effectif (titulaire) de l'Académie de Savoie en 1856.
 </t>
         </is>
       </c>
